--- a/LookupFiles/users.xlsx
+++ b/LookupFiles/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE9CFEE-5FDC-4D1F-AD60-721890C46007}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7938AB-21F2-4A36-B4EF-9437765C4AF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>userName</t>
   </si>
@@ -31,9 +31,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>role</t>
-  </si>
-  <si>
     <t>Anne Abelsæth</t>
   </si>
   <si>
@@ -43,13 +40,43 @@
     <t>123qwe</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>Elvis Presley</t>
   </si>
   <si>
     <t>elvis</t>
+  </si>
+  <si>
+    <t>teamNumber</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>dolly</t>
+  </si>
+  <si>
+    <t>Erna Solberg</t>
+  </si>
+  <si>
+    <t>erna</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>donald</t>
+  </si>
+  <si>
+    <t>counterStart</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>interviewer</t>
   </si>
 </sst>
 </file>
@@ -367,54 +394,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>700</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/LookupFiles/users.xlsx
+++ b/LookupFiles/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aae\OneDrive - Statistisk sentralbyrå\Documents\GitHub\ENERGY\LookupFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A207F443-7D5A-469A-92B3-22C228A04307}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C9E6FD-D71F-4A94-A523-53645D746227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="2475" windowWidth="25620" windowHeight="12735" xr2:uid="{E83E24DF-ECF9-4033-ACEC-B0F7094A083B}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{E83E24DF-ECF9-4033-ACEC-B0F7094A083B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Login</t>
   </si>
@@ -48,16 +48,10 @@
     <t>username</t>
   </si>
   <si>
-    <t>pw</t>
-  </si>
-  <si>
     <t>bob</t>
   </si>
   <si>
     <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>123qwe</t>
   </si>
   <si>
     <t>Role</t>
@@ -451,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43E83A9-4175-4444-8AB1-9925632E1DE6}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,35 +464,29 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -507,18 +495,15 @@
         <v>700</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -527,15 +512,12 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -544,15 +526,12 @@
         <v>500</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -561,29 +540,23 @@
         <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -592,15 +565,12 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -609,18 +579,15 @@
         <v>300</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -629,15 +596,12 @@
         <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -646,10 +610,7 @@
         <v>500</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/LookupFiles/users.xlsx
+++ b/LookupFiles/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aae\OneDrive - Statistisk sentralbyrå\Documents\GitHub\ENERGY\LookupFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/699cb0a564aebff5/Documents/GitHub/ENERGY/LookupFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C9E6FD-D71F-4A94-A523-53645D746227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{63C9E6FD-D71F-4A94-A523-53645D746227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02E49AF5-2916-4D3E-A1D2-77DF47C05AF3}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{E83E24DF-ECF9-4033-ACEC-B0F7094A083B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E83E24DF-ECF9-4033-ACEC-B0F7094A083B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Login</t>
   </si>
@@ -94,6 +85,54 @@
   </si>
   <si>
     <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>kawa</t>
+  </si>
+  <si>
+    <t>mwenda</t>
+  </si>
+  <si>
+    <t>teddy</t>
+  </si>
+  <si>
+    <t>nico</t>
+  </si>
+  <si>
+    <t>titus</t>
+  </si>
+  <si>
+    <t>festo</t>
+  </si>
+  <si>
+    <t>jilahoma</t>
+  </si>
+  <si>
+    <t>kalinga</t>
+  </si>
+  <si>
+    <t>Samwel Kawa</t>
+  </si>
+  <si>
+    <t>Philemon Mwenda</t>
+  </si>
+  <si>
+    <t>Theresia Sagamilwa</t>
+  </si>
+  <si>
+    <t>Nico Ombeni</t>
+  </si>
+  <si>
+    <t>Titus Mwisomba</t>
+  </si>
+  <si>
+    <t>Festo Mwemutsi</t>
+  </si>
+  <si>
+    <t>Jilahoma Mussa</t>
+  </si>
+  <si>
+    <t>Ramadhani Kalinga</t>
   </si>
 </sst>
 </file>
@@ -445,13 +484,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43E83A9-4175-4444-8AB1-9925632E1DE6}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -613,6 +657,139 @@
         <v>18</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>300</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>700</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LookupFiles/users.xlsx
+++ b/LookupFiles/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/699cb0a564aebff5/Documents/GitHub/ENERGY/LookupFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ENERGY\LookupFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{63C9E6FD-D71F-4A94-A523-53645D746227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02E49AF5-2916-4D3E-A1D2-77DF47C05AF3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D228AF65-DC77-4D88-9FB0-3C984BB16AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E83E24DF-ECF9-4033-ACEC-B0F7094A083B}"/>
+    <workbookView xWindow="2055" yWindow="1770" windowWidth="23940" windowHeight="12525" xr2:uid="{E83E24DF-ECF9-4033-ACEC-B0F7094A083B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Login</t>
   </si>
@@ -90,49 +90,28 @@
     <t>kawa</t>
   </si>
   <si>
-    <t>mwenda</t>
-  </si>
-  <si>
-    <t>teddy</t>
-  </si>
-  <si>
-    <t>nico</t>
-  </si>
-  <si>
-    <t>titus</t>
-  </si>
-  <si>
-    <t>festo</t>
-  </si>
-  <si>
-    <t>jilahoma</t>
-  </si>
-  <si>
-    <t>kalinga</t>
-  </si>
-  <si>
     <t>Samwel Kawa</t>
   </si>
   <si>
-    <t>Philemon Mwenda</t>
-  </si>
-  <si>
-    <t>Theresia Sagamilwa</t>
-  </si>
-  <si>
-    <t>Nico Ombeni</t>
-  </si>
-  <si>
-    <t>Titus Mwisomba</t>
-  </si>
-  <si>
-    <t>Festo Mwemutsi</t>
-  </si>
-  <si>
-    <t>Jilahoma Mussa</t>
-  </si>
-  <si>
-    <t>Ramadhani Kalinga</t>
+    <t>eline</t>
+  </si>
+  <si>
+    <t>joshua</t>
+  </si>
+  <si>
+    <t>lightness</t>
+  </si>
+  <si>
+    <t>iddy</t>
+  </si>
+  <si>
+    <t>shamimu</t>
+  </si>
+  <si>
+    <t>nelson</t>
+  </si>
+  <si>
+    <t>admed</t>
   </si>
 </sst>
 </file>
@@ -487,7 +466,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,12 +650,12 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -687,13 +666,10 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -704,13 +680,10 @@
       <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -721,13 +694,10 @@
       <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -735,13 +705,10 @@
       <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -752,13 +719,10 @@
       <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -769,13 +733,10 @@
       <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -786,11 +747,9 @@
       <c r="D19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LookupFiles/users.xlsx
+++ b/LookupFiles/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/699cb0a564aebff5/Documents/GitHub/ENERGY/LookupFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\ENERGY\LookupFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{63C9E6FD-D71F-4A94-A523-53645D746227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02E49AF5-2916-4D3E-A1D2-77DF47C05AF3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E614DA-5905-49B3-9302-6F55D9001BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E83E24DF-ECF9-4033-ACEC-B0F7094A083B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E83E24DF-ECF9-4033-ACEC-B0F7094A083B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Login</t>
   </si>
@@ -133,16 +133,46 @@
   </si>
   <si>
     <t>Ramadhani Kalinga</t>
+  </si>
+  <si>
+    <t>shamimu</t>
+  </si>
+  <si>
+    <t>eline</t>
+  </si>
+  <si>
+    <t>joshua</t>
+  </si>
+  <si>
+    <t>lightness</t>
+  </si>
+  <si>
+    <t>Interview 01</t>
+  </si>
+  <si>
+    <t>Interview 02</t>
+  </si>
+  <si>
+    <t>Interview 03</t>
+  </si>
+  <si>
+    <t>Interview 04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -484,20 +514,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43E83A9-4175-4444-8AB1-9925632E1DE6}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -528,7 +558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -545,7 +575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -559,7 +589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -573,7 +603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -587,7 +617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -598,7 +628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -612,7 +642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -629,7 +659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -643,7 +673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -657,7 +687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -674,7 +704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -691,7 +721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -708,7 +738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -725,7 +755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -739,7 +769,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -756,7 +786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -773,7 +803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -790,7 +820,76 @@
         <v>35</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>800</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>900</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>850</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>950</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LookupFiles/users.xlsx
+++ b/LookupFiles/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ENERGY\LookupFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/699cb0a564aebff5/Documents/GitHub/ENERGY/LookupFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D228AF65-DC77-4D88-9FB0-3C984BB16AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{7C9AE28F-025C-4BAB-B667-D52E40BEB979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E6BCB86-07AE-4FDF-AD05-3EDB2FEE7582}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1770" windowWidth="23940" windowHeight="12525" xr2:uid="{E83E24DF-ECF9-4033-ACEC-B0F7094A083B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E83E24DF-ECF9-4033-ACEC-B0F7094A083B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="151">
   <si>
     <t>Login</t>
   </si>
@@ -39,60 +39,18 @@
     <t>username</t>
   </si>
   <si>
-    <t>bob</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
     <t>supervisor</t>
   </si>
   <si>
-    <t>anne</t>
-  </si>
-  <si>
-    <t>Anne Panne</t>
-  </si>
-  <si>
-    <t>donald</t>
-  </si>
-  <si>
     <t>elvis</t>
   </si>
   <si>
-    <t>erna</t>
-  </si>
-  <si>
-    <t>per</t>
-  </si>
-  <si>
-    <t>kristian</t>
-  </si>
-  <si>
-    <t>mick</t>
-  </si>
-  <si>
-    <t>Freddie</t>
-  </si>
-  <si>
-    <t>Blondie</t>
-  </si>
-  <si>
     <t>interviewer</t>
   </si>
   <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>kawa</t>
-  </si>
-  <si>
-    <t>Samwel Kawa</t>
-  </si>
-  <si>
     <t>eline</t>
   </si>
   <si>
@@ -102,29 +60,471 @@
     <t>lightness</t>
   </si>
   <si>
-    <t>iddy</t>
-  </si>
-  <si>
-    <t>shamimu</t>
-  </si>
-  <si>
-    <t>nelson</t>
-  </si>
-  <si>
-    <t>admed</t>
+    <t>MOSSES KAHERO</t>
+  </si>
+  <si>
+    <t>ZAWADI JUMA</t>
+  </si>
+  <si>
+    <t>SPENSER LISHULA</t>
+  </si>
+  <si>
+    <t>SABATO KAKOMANGA</t>
+  </si>
+  <si>
+    <t>ABEL PAUL</t>
+  </si>
+  <si>
+    <t>KHALIDI MSABAHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOHANA MWENDA </t>
+  </si>
+  <si>
+    <t>VICTOR MARTIN MBOYA</t>
+  </si>
+  <si>
+    <t>VERONICA MWISOMBA</t>
+  </si>
+  <si>
+    <t>LEOKADIA MTEI</t>
+  </si>
+  <si>
+    <t>SHANI IDRISA LUGULU</t>
+  </si>
+  <si>
+    <t>SANDRA N. SILWIMBA</t>
+  </si>
+  <si>
+    <t>SAMWEL MBISE</t>
+  </si>
+  <si>
+    <t>LUCY RICHARD PASCAL</t>
+  </si>
+  <si>
+    <t>DAVID DANDA</t>
+  </si>
+  <si>
+    <t>RODIN MADEMBWE</t>
+  </si>
+  <si>
+    <t>REGINALD KITELE</t>
+  </si>
+  <si>
+    <t>RAPHAEL SAMSON CHELELE</t>
+  </si>
+  <si>
+    <t>MADELEINE MARCO</t>
+  </si>
+  <si>
+    <t>ELIUD KAMENDU</t>
+  </si>
+  <si>
+    <t>AMAN MUSSA</t>
+  </si>
+  <si>
+    <t>AMOS BANDAWE</t>
+  </si>
+  <si>
+    <t>ANNASTAZIA PAUL</t>
+  </si>
+  <si>
+    <t>MARIAM MAHIZA</t>
+  </si>
+  <si>
+    <t>ALFRED GEWE</t>
+  </si>
+  <si>
+    <t>ANSBERT CLEMENCE RWEZAHURA</t>
+  </si>
+  <si>
+    <t>BEATRICE TITUS</t>
+  </si>
+  <si>
+    <t>CHEJA YUSUPH MALILA</t>
+  </si>
+  <si>
+    <t>DAINA MWAILIMA</t>
+  </si>
+  <si>
+    <t>MASHAKA RASHID</t>
+  </si>
+  <si>
+    <t>IDD MRUKE</t>
+  </si>
+  <si>
+    <t>DANIEL PETER SANJO</t>
+  </si>
+  <si>
+    <t>DEODATUS CHRISTANT MWENDAPOLE</t>
+  </si>
+  <si>
+    <t>DORAN LUNYORO</t>
+  </si>
+  <si>
+    <t>DOREEN MAKYAO</t>
+  </si>
+  <si>
+    <t>MONICA MASABURI</t>
+  </si>
+  <si>
+    <t>JACOB LUFINGO</t>
+  </si>
+  <si>
+    <t>DAMSON KILANGA</t>
+  </si>
+  <si>
+    <t>ELINE ANSELM ASIGE</t>
+  </si>
+  <si>
+    <t>ELVIS NESTORY MAKAVA</t>
+  </si>
+  <si>
+    <t>ERICK ANAM</t>
+  </si>
+  <si>
+    <t>MWASAUMU  SHOMARI KONDO</t>
+  </si>
+  <si>
+    <t>ALBERT KAPALA</t>
+  </si>
+  <si>
+    <t>FELIX MKUMBI</t>
+  </si>
+  <si>
+    <t>GIDION CHRISTOPHER CHAO</t>
+  </si>
+  <si>
+    <t>HADIJA KARANGE</t>
+  </si>
+  <si>
+    <t>HAJI MWAMETA</t>
+  </si>
+  <si>
+    <t>NEEMA KALUWA</t>
+  </si>
+  <si>
+    <t>MWANTUMU ATHUMANI</t>
+  </si>
+  <si>
+    <t>JACKLINE KAPELA</t>
+  </si>
+  <si>
+    <t>JAMILA MAUMBA</t>
+  </si>
+  <si>
+    <t>JANETH JOSEPH</t>
+  </si>
+  <si>
+    <t>JEREMIA DANIEL MFUGWABO</t>
+  </si>
+  <si>
+    <t>ORTENSIA URASA</t>
+  </si>
+  <si>
+    <t>DOTTO IBRAHIM ALLEY</t>
+  </si>
+  <si>
+    <t>JESCA DOMINIC THEONGALD</t>
+  </si>
+  <si>
+    <t>JOHN KINYAGA</t>
+  </si>
+  <si>
+    <t>JOHN MUGISHA</t>
+  </si>
+  <si>
+    <t>JOSEPH KIPANTA</t>
+  </si>
+  <si>
+    <t>TONY MWANJOTA</t>
+  </si>
+  <si>
+    <t>JOSHUA MWAYOMBO</t>
+  </si>
+  <si>
+    <t>JUDITH CHARLES PAUL</t>
+  </si>
+  <si>
+    <t>KASSIM OMARY CHANDO</t>
+  </si>
+  <si>
+    <t>KISUMBO ELIRINGIA</t>
+  </si>
+  <si>
+    <t>PETER MILINGA</t>
+  </si>
+  <si>
+    <t>LEVINA ATHANAS</t>
+  </si>
+  <si>
+    <t>LIGHTNESS SAMHENDA</t>
+  </si>
+  <si>
+    <t>LUCAS KIRINGO</t>
+  </si>
+  <si>
+    <t>LUCIA NGELANGELA</t>
+  </si>
+  <si>
+    <t>kahero</t>
+  </si>
+  <si>
+    <t>zawadi</t>
+  </si>
+  <si>
+    <t>spenser</t>
+  </si>
+  <si>
+    <t>sabato</t>
+  </si>
+  <si>
+    <t>abel</t>
+  </si>
+  <si>
+    <t>msabaha</t>
+  </si>
+  <si>
+    <t>mwenda</t>
+  </si>
+  <si>
+    <t>mboya</t>
+  </si>
+  <si>
+    <t>veronica</t>
+  </si>
+  <si>
+    <t>venancia</t>
+  </si>
+  <si>
+    <t>leokadia</t>
+  </si>
+  <si>
+    <t>shani</t>
+  </si>
+  <si>
+    <t>sandra</t>
+  </si>
+  <si>
+    <t>mbise</t>
+  </si>
+  <si>
+    <t>lucy</t>
+  </si>
+  <si>
+    <t>danda</t>
+  </si>
+  <si>
+    <t>rodin</t>
+  </si>
+  <si>
+    <t>kitele</t>
+  </si>
+  <si>
+    <t>chelele</t>
+  </si>
+  <si>
+    <t>madeline</t>
+  </si>
+  <si>
+    <t>kamendu</t>
+  </si>
+  <si>
+    <t>aman</t>
+  </si>
+  <si>
+    <t>amos</t>
+  </si>
+  <si>
+    <t>annastazia</t>
+  </si>
+  <si>
+    <t>maram</t>
+  </si>
+  <si>
+    <t>gewe</t>
+  </si>
+  <si>
+    <t>ansbert</t>
+  </si>
+  <si>
+    <t>beatrice</t>
+  </si>
+  <si>
+    <t>cheja</t>
+  </si>
+  <si>
+    <t>daina</t>
+  </si>
+  <si>
+    <t>mashaka</t>
+  </si>
+  <si>
+    <t>mruke</t>
+  </si>
+  <si>
+    <t>sanjo</t>
+  </si>
+  <si>
+    <t>mwendapole</t>
+  </si>
+  <si>
+    <t>doran</t>
+  </si>
+  <si>
+    <t>doreen</t>
+  </si>
+  <si>
+    <t>monica</t>
+  </si>
+  <si>
+    <t>damson</t>
+  </si>
+  <si>
+    <t>erick</t>
+  </si>
+  <si>
+    <t>kondo</t>
+  </si>
+  <si>
+    <t>kapala</t>
+  </si>
+  <si>
+    <t>felix</t>
+  </si>
+  <si>
+    <t>gidion</t>
+  </si>
+  <si>
+    <t>karange</t>
+  </si>
+  <si>
+    <t>mwameta</t>
+  </si>
+  <si>
+    <t>kaluwa</t>
+  </si>
+  <si>
+    <t>mwantum</t>
+  </si>
+  <si>
+    <t>jackline</t>
+  </si>
+  <si>
+    <t>maumba</t>
+  </si>
+  <si>
+    <t>janeth</t>
+  </si>
+  <si>
+    <t>jeremia</t>
+  </si>
+  <si>
+    <t>urasa</t>
+  </si>
+  <si>
+    <t>dotto</t>
+  </si>
+  <si>
+    <t>jesca</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>mugisha</t>
+  </si>
+  <si>
+    <t>kipanta</t>
+  </si>
+  <si>
+    <t>tony</t>
+  </si>
+  <si>
+    <t>judith</t>
+  </si>
+  <si>
+    <t>kassim</t>
+  </si>
+  <si>
+    <t>kisumbo</t>
+  </si>
+  <si>
+    <t>milinga</t>
+  </si>
+  <si>
+    <t>levina</t>
+  </si>
+  <si>
+    <t>lucas</t>
+  </si>
+  <si>
+    <t>lucia</t>
+  </si>
+  <si>
+    <t>VENANCIA MWAMUNYANGE</t>
+  </si>
+  <si>
+    <t>jacob</t>
+  </si>
+  <si>
+    <t>nico</t>
+  </si>
+  <si>
+    <t>NICO OMBENI</t>
+  </si>
+  <si>
+    <t>ZAWADI BIKI</t>
+  </si>
+  <si>
+    <t>biki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,7 +535,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,12 +543,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,293 +902,1232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43E83A9-4175-4444-8AB1-9925632E1DE6}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>300</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>500</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>700</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>300</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>500</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>700</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>100</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5">
+        <v>300</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5">
+        <v>500</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5">
+        <v>700</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="4">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5">
+        <v>100</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="5">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5">
+        <v>300</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="5">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5">
+        <v>500</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5">
+        <v>700</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="5">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5">
+        <v>100</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="5">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5">
+        <v>300</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="5">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5">
+        <v>500</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="5">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5">
+        <v>700</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="4">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="5">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5">
+        <v>100</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="5">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5">
+        <v>300</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="5">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5">
+        <v>500</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="5">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5">
+        <v>700</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="4">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="5">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5">
+        <v>100</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="5">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5">
+        <v>300</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="5">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5">
+        <v>500</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="5">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5">
+        <v>700</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="4">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="5">
+        <v>8</v>
+      </c>
+      <c r="C38" s="5">
+        <v>100</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="5">
+        <v>8</v>
+      </c>
+      <c r="C39" s="5">
+        <v>300</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="5">
+        <v>8</v>
+      </c>
+      <c r="C40" s="5">
+        <v>500</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="5">
+        <v>8</v>
+      </c>
+      <c r="C41" s="5">
+        <v>700</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="5">
+        <v>9</v>
+      </c>
+      <c r="C43" s="5">
+        <v>100</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="5">
+        <v>9</v>
+      </c>
+      <c r="C44" s="5">
+        <v>300</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="5">
+        <v>9</v>
+      </c>
+      <c r="C45" s="5">
+        <v>500</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="5">
+        <v>9</v>
+      </c>
+      <c r="C46" s="5">
+        <v>700</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="4">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="5">
+        <v>10</v>
+      </c>
+      <c r="C48" s="5">
+        <v>100</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="5">
+        <v>10</v>
+      </c>
+      <c r="C49" s="5">
+        <v>300</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="5">
+        <v>10</v>
+      </c>
+      <c r="C50" s="5">
+        <v>500</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="5">
+        <v>10</v>
+      </c>
+      <c r="C51" s="5">
         <v>700</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="4">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="5">
+        <v>11</v>
+      </c>
+      <c r="C53" s="5">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="5">
+        <v>11</v>
+      </c>
+      <c r="C54" s="5">
+        <v>400</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="5">
+        <v>11</v>
+      </c>
+      <c r="C55" s="5">
+        <v>700</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="4">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="5">
+        <v>12</v>
+      </c>
+      <c r="C57" s="5">
+        <v>100</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="5">
+        <v>12</v>
+      </c>
+      <c r="C58" s="5">
+        <v>400</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="5">
+        <v>12</v>
+      </c>
+      <c r="C59" s="5">
+        <v>700</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="4">
+        <v>13</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="5">
+        <v>13</v>
+      </c>
+      <c r="C61" s="5">
+        <v>100</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="5">
+        <v>13</v>
+      </c>
+      <c r="C62" s="5">
+        <v>400</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="5">
+        <v>13</v>
+      </c>
+      <c r="C63" s="5">
+        <v>700</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="4">
+        <v>14</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="5">
+        <v>14</v>
+      </c>
+      <c r="C65" s="5">
+        <v>100</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="5">
+        <v>14</v>
+      </c>
+      <c r="C66" s="5">
+        <v>300</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="5">
+        <v>14</v>
+      </c>
+      <c r="C67" s="5">
         <v>500</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="D67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="5">
+        <v>14</v>
+      </c>
+      <c r="C68" s="5">
+        <v>700</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="8">
+        <v>15</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="8">
+        <v>15</v>
+      </c>
+      <c r="C70" s="5">
+        <v>100</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="8">
+        <v>15</v>
+      </c>
+      <c r="C71" s="5">
         <v>300</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="8">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>300</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>400</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
+      <c r="C72" s="5">
         <v>500</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>300</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>500</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
+      <c r="D72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="8">
+        <v>15</v>
+      </c>
+      <c r="C73" s="5">
         <v>700</v>
       </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>300</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>500</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
+      <c r="D73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LookupFiles/users.xlsx
+++ b/LookupFiles/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ENERGY\LookupFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\ENERGY\LookupFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D228AF65-DC77-4D88-9FB0-3C984BB16AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014236DB-AAD9-4B40-9BB2-EB1F5D0401D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1770" windowWidth="23940" windowHeight="12525" xr2:uid="{E83E24DF-ECF9-4033-ACEC-B0F7094A083B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E83E24DF-ECF9-4033-ACEC-B0F7094A083B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="147">
   <si>
     <t>Login</t>
   </si>
@@ -39,60 +39,18 @@
     <t>username</t>
   </si>
   <si>
-    <t>bob</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
     <t>supervisor</t>
   </si>
   <si>
-    <t>anne</t>
-  </si>
-  <si>
-    <t>Anne Panne</t>
-  </si>
-  <si>
-    <t>donald</t>
-  </si>
-  <si>
     <t>elvis</t>
   </si>
   <si>
-    <t>erna</t>
-  </si>
-  <si>
-    <t>per</t>
-  </si>
-  <si>
-    <t>kristian</t>
-  </si>
-  <si>
-    <t>mick</t>
-  </si>
-  <si>
-    <t>Freddie</t>
-  </si>
-  <si>
-    <t>Blondie</t>
-  </si>
-  <si>
     <t>interviewer</t>
   </si>
   <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>kawa</t>
-  </si>
-  <si>
-    <t>Samwel Kawa</t>
-  </si>
-  <si>
     <t>eline</t>
   </si>
   <si>
@@ -102,29 +60,452 @@
     <t>lightness</t>
   </si>
   <si>
-    <t>iddy</t>
-  </si>
-  <si>
-    <t>shamimu</t>
-  </si>
-  <si>
-    <t>nelson</t>
-  </si>
-  <si>
-    <t>admed</t>
+    <t>MOSSES KAHERO</t>
+  </si>
+  <si>
+    <t>ZAWADI JUMA</t>
+  </si>
+  <si>
+    <t>SPENSER LISHULA</t>
+  </si>
+  <si>
+    <t>SABATO KAKOMANGA</t>
+  </si>
+  <si>
+    <t>ABEL PAUL</t>
+  </si>
+  <si>
+    <t>KHALIDI MSABAHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOHANA MWENDA </t>
+  </si>
+  <si>
+    <t>VICTOR MARTIN MBOYA</t>
+  </si>
+  <si>
+    <t>VERONICA MWISOMBA</t>
+  </si>
+  <si>
+    <t>LEOKADIA MTEI</t>
+  </si>
+  <si>
+    <t>SHANI IDRISA LUGULU</t>
+  </si>
+  <si>
+    <t>SANDRA N. SILWIMBA</t>
+  </si>
+  <si>
+    <t>SAMWEL MBISE</t>
+  </si>
+  <si>
+    <t>LUCY RICHARD PASCAL</t>
+  </si>
+  <si>
+    <t>DAVID DANDA</t>
+  </si>
+  <si>
+    <t>RODIN MADEMBWE</t>
+  </si>
+  <si>
+    <t>REGINALD KITELE</t>
+  </si>
+  <si>
+    <t>RAPHAEL SAMSON CHELELE</t>
+  </si>
+  <si>
+    <t>MADELEINE MARCO</t>
+  </si>
+  <si>
+    <t>ELIUD KAMENDU</t>
+  </si>
+  <si>
+    <t>AMAN MUSSA</t>
+  </si>
+  <si>
+    <t>AMOS BANDAWE</t>
+  </si>
+  <si>
+    <t>ANNASTAZIA PAUL</t>
+  </si>
+  <si>
+    <t>MARIAM MAHIZA</t>
+  </si>
+  <si>
+    <t>ALFRED GEWE</t>
+  </si>
+  <si>
+    <t>ANSBERT CLEMENCE RWEZAHURA</t>
+  </si>
+  <si>
+    <t>BEATRICE TITUS</t>
+  </si>
+  <si>
+    <t>CHEJA YUSUPH MALILA</t>
+  </si>
+  <si>
+    <t>DAINA MWAILIMA</t>
+  </si>
+  <si>
+    <t>MASHAKA RASHID</t>
+  </si>
+  <si>
+    <t>IDD MRUKE</t>
+  </si>
+  <si>
+    <t>DANIEL PETER SANJO</t>
+  </si>
+  <si>
+    <t>DEODATUS CHRISTANT MWENDAPOLE</t>
+  </si>
+  <si>
+    <t>DORAN LUNYORO</t>
+  </si>
+  <si>
+    <t>DOREEN MAKYAO</t>
+  </si>
+  <si>
+    <t>MONICA MASABURI</t>
+  </si>
+  <si>
+    <t>JACOB LUFINGO</t>
+  </si>
+  <si>
+    <t>DAMSON KILANGA</t>
+  </si>
+  <si>
+    <t>ELINE ANSELM ASIGE</t>
+  </si>
+  <si>
+    <t>ELVIS NESTORY MAKAVA</t>
+  </si>
+  <si>
+    <t>ERICK ANAM</t>
+  </si>
+  <si>
+    <t>MWASAUMU  SHOMARI KONDO</t>
+  </si>
+  <si>
+    <t>ALBERT KAPALA</t>
+  </si>
+  <si>
+    <t>FELIX MKUMBI</t>
+  </si>
+  <si>
+    <t>GIDION CHRISTOPHER CHAO</t>
+  </si>
+  <si>
+    <t>HADIJA KARANGE</t>
+  </si>
+  <si>
+    <t>HAJI MWAMETA</t>
+  </si>
+  <si>
+    <t>NEEMA KALUWA</t>
+  </si>
+  <si>
+    <t>MWANTUMU ATHUMANI</t>
+  </si>
+  <si>
+    <t>JACKLINE KAPELA</t>
+  </si>
+  <si>
+    <t>JAMILA MAUMBA</t>
+  </si>
+  <si>
+    <t>JANETH JOSEPH</t>
+  </si>
+  <si>
+    <t>JEREMIA DANIEL MFUGWABO</t>
+  </si>
+  <si>
+    <t>ORTENSIA URASA</t>
+  </si>
+  <si>
+    <t>DOTTO IBRAHIM ALLEY</t>
+  </si>
+  <si>
+    <t>JESCA DOMINIC THEONGALD</t>
+  </si>
+  <si>
+    <t>JOHN KINYAGA</t>
+  </si>
+  <si>
+    <t>JOHN MUGISHA</t>
+  </si>
+  <si>
+    <t>JOSEPH KIPANTA</t>
+  </si>
+  <si>
+    <t>TONY MWANJOTA</t>
+  </si>
+  <si>
+    <t>JOSHUA MWAYOMBO</t>
+  </si>
+  <si>
+    <t>JUDITH CHARLES PAUL</t>
+  </si>
+  <si>
+    <t>KASSIM OMARY CHANDO</t>
+  </si>
+  <si>
+    <t>KISUMBO ELIRINGIA</t>
+  </si>
+  <si>
+    <t>PETER MILINGA</t>
+  </si>
+  <si>
+    <t>LEVINA ATHANAS</t>
+  </si>
+  <si>
+    <t>LIGHTNESS SAMHENDA</t>
+  </si>
+  <si>
+    <t>LUCAS KIRINGO</t>
+  </si>
+  <si>
+    <t>LUCIA NGELANGELA</t>
+  </si>
+  <si>
+    <t>kahero</t>
+  </si>
+  <si>
+    <t>zawadi</t>
+  </si>
+  <si>
+    <t>spenser</t>
+  </si>
+  <si>
+    <t>sabato</t>
+  </si>
+  <si>
+    <t>abel</t>
+  </si>
+  <si>
+    <t>msabaha</t>
+  </si>
+  <si>
+    <t>mwenda</t>
+  </si>
+  <si>
+    <t>mboya</t>
+  </si>
+  <si>
+    <t>veronica</t>
+  </si>
+  <si>
+    <t>venancia</t>
+  </si>
+  <si>
+    <t>VANANCIA MWAMUNYANGE</t>
+  </si>
+  <si>
+    <t>leokadia</t>
+  </si>
+  <si>
+    <t>shani</t>
+  </si>
+  <si>
+    <t>sandra</t>
+  </si>
+  <si>
+    <t>mbise</t>
+  </si>
+  <si>
+    <t>lucy</t>
+  </si>
+  <si>
+    <t>danda</t>
+  </si>
+  <si>
+    <t>rodin</t>
+  </si>
+  <si>
+    <t>kitele</t>
+  </si>
+  <si>
+    <t>chelele</t>
+  </si>
+  <si>
+    <t>madeline</t>
+  </si>
+  <si>
+    <t>kamendu</t>
+  </si>
+  <si>
+    <t>aman</t>
+  </si>
+  <si>
+    <t>amos</t>
+  </si>
+  <si>
+    <t>annastazia</t>
+  </si>
+  <si>
+    <t>maram</t>
+  </si>
+  <si>
+    <t>gewe</t>
+  </si>
+  <si>
+    <t>ansbert</t>
+  </si>
+  <si>
+    <t>beatrice</t>
+  </si>
+  <si>
+    <t>cheja</t>
+  </si>
+  <si>
+    <t>daina</t>
+  </si>
+  <si>
+    <t>mashaka</t>
+  </si>
+  <si>
+    <t>mruke</t>
+  </si>
+  <si>
+    <t>sanjo</t>
+  </si>
+  <si>
+    <t>mwendapole</t>
+  </si>
+  <si>
+    <t>doran</t>
+  </si>
+  <si>
+    <t>doreen</t>
+  </si>
+  <si>
+    <t>monica</t>
+  </si>
+  <si>
+    <t>jocob</t>
+  </si>
+  <si>
+    <t>damson</t>
+  </si>
+  <si>
+    <t>erick</t>
+  </si>
+  <si>
+    <t>kondo</t>
+  </si>
+  <si>
+    <t>kapala</t>
+  </si>
+  <si>
+    <t>felix</t>
+  </si>
+  <si>
+    <t>gidion</t>
+  </si>
+  <si>
+    <t>karange</t>
+  </si>
+  <si>
+    <t>mwameta</t>
+  </si>
+  <si>
+    <t>kaluwa</t>
+  </si>
+  <si>
+    <t>mwantum</t>
+  </si>
+  <si>
+    <t>jackline</t>
+  </si>
+  <si>
+    <t>maumba</t>
+  </si>
+  <si>
+    <t>janeth</t>
+  </si>
+  <si>
+    <t>jeremia</t>
+  </si>
+  <si>
+    <t>urasa</t>
+  </si>
+  <si>
+    <t>dotto</t>
+  </si>
+  <si>
+    <t>jesca</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>mugisha</t>
+  </si>
+  <si>
+    <t>kipanta</t>
+  </si>
+  <si>
+    <t>tony</t>
+  </si>
+  <si>
+    <t>judith</t>
+  </si>
+  <si>
+    <t>kassim</t>
+  </si>
+  <si>
+    <t>kisumbo</t>
+  </si>
+  <si>
+    <t>milinga</t>
+  </si>
+  <si>
+    <t>levina</t>
+  </si>
+  <si>
+    <t>lucas</t>
+  </si>
+  <si>
+    <t>lucia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,7 +516,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -143,12 +524,144 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,84 +976,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43E83A9-4175-4444-8AB1-9925632E1DE6}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -549,37 +1066,46 @@
         <v>500</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -588,12 +1114,15 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -602,154 +1131,1035 @@
         <v>300</v>
       </c>
       <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
       <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>700</v>
       </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
       <c r="D17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19">
+        <v>300</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>500</v>
       </c>
-      <c r="D19" t="s">
-        <v>18</v>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>700</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>300</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>500</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>700</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>400</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>600</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>800</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>200</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>400</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>600</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>800</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>300</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>500</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>700</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>800</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>200</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>400</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>600</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>800</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>200</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>400</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>600</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>800</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>100</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>300</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>500</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>700</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>300</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>500</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>700</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>300</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>500</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <v>700</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LookupFiles/users.xlsx
+++ b/LookupFiles/users.xlsx
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43E83A9-4175-4444-8AB1-9925632E1DE6}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LookupFiles/users.xlsx
+++ b/LookupFiles/users.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\ENERGY\LookupFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSB\ENERGY\LookupFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD335785-A73F-430C-BC9F-760EBC32BD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E83E24DF-ECF9-4033-ACEC-B0F7094A083B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="189">
   <si>
     <t>Login</t>
   </si>
@@ -45,433 +44,559 @@
     <t>supervisor</t>
   </si>
   <si>
-    <t>elvis</t>
-  </si>
-  <si>
     <t>interviewer</t>
   </si>
   <si>
-    <t>eline</t>
-  </si>
-  <si>
-    <t>joshua</t>
-  </si>
-  <si>
-    <t>lightness</t>
-  </si>
-  <si>
-    <t>MOSSES KAHERO</t>
-  </si>
-  <si>
-    <t>ZAWADI JUMA</t>
-  </si>
-  <si>
-    <t>SABATO KAKOMANGA</t>
-  </si>
-  <si>
-    <t>ABEL PAUL</t>
-  </si>
-  <si>
-    <t>KHALIDI MSABAHA</t>
-  </si>
-  <si>
-    <t>VERONICA MWISOMBA</t>
-  </si>
-  <si>
-    <t>LEOKADIA MTEI</t>
-  </si>
-  <si>
-    <t>SHANI IDRISA LUGULU</t>
-  </si>
-  <si>
-    <t>SANDRA N. SILWIMBA</t>
-  </si>
-  <si>
-    <t>SAMWEL MBISE</t>
-  </si>
-  <si>
-    <t>LUCY RICHARD PASCAL</t>
-  </si>
-  <si>
-    <t>DAVID DANDA</t>
-  </si>
-  <si>
-    <t>REGINALD KITELE</t>
-  </si>
-  <si>
-    <t>MADELEINE MARCO</t>
-  </si>
-  <si>
-    <t>ELIUD KAMENDU</t>
-  </si>
-  <si>
-    <t>AMOS BANDAWE</t>
-  </si>
-  <si>
-    <t>MARIAM MAHIZA</t>
-  </si>
-  <si>
-    <t>ALFRED GEWE</t>
-  </si>
-  <si>
-    <t>BEATRICE TITUS</t>
-  </si>
-  <si>
-    <t>DAINA MWAILIMA</t>
-  </si>
-  <si>
-    <t>MASHAKA RASHID</t>
-  </si>
-  <si>
-    <t>DANIEL PETER SANJO</t>
-  </si>
-  <si>
-    <t>DOREEN MAKYAO</t>
-  </si>
-  <si>
-    <t>MONICA MASABURI</t>
-  </si>
-  <si>
-    <t>JACOB LUFINGO</t>
-  </si>
-  <si>
-    <t>DAMSON KILANGA</t>
-  </si>
-  <si>
-    <t>ELVIS NESTORY MAKAVA</t>
-  </si>
-  <si>
-    <t>ERICK ANAM</t>
-  </si>
-  <si>
-    <t>MWASAUMU  SHOMARI KONDO</t>
-  </si>
-  <si>
-    <t>ALBERT KAPALA</t>
-  </si>
-  <si>
-    <t>HADIJA KARANGE</t>
-  </si>
-  <si>
-    <t>NEEMA KALUWA</t>
-  </si>
-  <si>
-    <t>MWANTUMU ATHUMANI</t>
-  </si>
-  <si>
-    <t>JEREMIA DANIEL MFUGWABO</t>
-  </si>
-  <si>
-    <t>ORTENSIA URASA</t>
-  </si>
-  <si>
-    <t>DOTTO IBRAHIM ALLEY</t>
-  </si>
-  <si>
-    <t>JESCA DOMINIC THEONGALD</t>
-  </si>
-  <si>
-    <t>JOHN MUGISHA</t>
-  </si>
-  <si>
-    <t>TONY MWANJOTA</t>
-  </si>
-  <si>
-    <t>JOSHUA MWAYOMBO</t>
-  </si>
-  <si>
-    <t>JUDITH CHARLES PAUL</t>
-  </si>
-  <si>
-    <t>KASSIM OMARY CHANDO</t>
-  </si>
-  <si>
-    <t>PETER MILINGA</t>
-  </si>
-  <si>
-    <t>LEVINA ATHANAS</t>
-  </si>
-  <si>
-    <t>LUCAS KIRINGO</t>
-  </si>
-  <si>
-    <t>LUCIA NGELANGELA</t>
-  </si>
-  <si>
-    <t>kahero</t>
-  </si>
-  <si>
-    <t>zawadi</t>
-  </si>
-  <si>
-    <t>spenser</t>
-  </si>
-  <si>
-    <t>sabato</t>
-  </si>
-  <si>
-    <t>abel</t>
-  </si>
-  <si>
-    <t>msabaha</t>
-  </si>
-  <si>
-    <t>mwenda</t>
-  </si>
-  <si>
-    <t>mboya</t>
-  </si>
-  <si>
-    <t>veronica</t>
-  </si>
-  <si>
-    <t>venancia</t>
-  </si>
-  <si>
-    <t>leokadia</t>
-  </si>
-  <si>
-    <t>shani</t>
-  </si>
-  <si>
     <t>sandra</t>
   </si>
   <si>
-    <t>mbise</t>
-  </si>
-  <si>
-    <t>lucy</t>
-  </si>
-  <si>
-    <t>danda</t>
-  </si>
-  <si>
-    <t>rodin</t>
-  </si>
-  <si>
-    <t>kitele</t>
-  </si>
-  <si>
-    <t>chelele</t>
-  </si>
-  <si>
-    <t>madeline</t>
-  </si>
-  <si>
-    <t>kamendu</t>
-  </si>
-  <si>
-    <t>aman</t>
-  </si>
-  <si>
-    <t>amos</t>
-  </si>
-  <si>
-    <t>annastazia</t>
-  </si>
-  <si>
-    <t>gewe</t>
-  </si>
-  <si>
-    <t>ansbert</t>
-  </si>
-  <si>
-    <t>beatrice</t>
-  </si>
-  <si>
-    <t>cheja</t>
-  </si>
-  <si>
-    <t>daina</t>
-  </si>
-  <si>
-    <t>mashaka</t>
-  </si>
-  <si>
-    <t>sanjo</t>
-  </si>
-  <si>
-    <t>mwendapole</t>
-  </si>
-  <si>
-    <t>doran</t>
-  </si>
-  <si>
-    <t>doreen</t>
-  </si>
-  <si>
-    <t>monica</t>
-  </si>
-  <si>
-    <t>damson</t>
-  </si>
-  <si>
-    <t>erick</t>
-  </si>
-  <si>
-    <t>kondo</t>
-  </si>
-  <si>
-    <t>kapala</t>
-  </si>
-  <si>
     <t>felix</t>
   </si>
   <si>
-    <t>gidion</t>
-  </si>
-  <si>
-    <t>karange</t>
-  </si>
-  <si>
-    <t>mwameta</t>
-  </si>
-  <si>
-    <t>kaluwa</t>
-  </si>
-  <si>
-    <t>mwantum</t>
-  </si>
-  <si>
-    <t>jackline</t>
-  </si>
-  <si>
-    <t>maumba</t>
-  </si>
-  <si>
-    <t>janeth</t>
-  </si>
-  <si>
-    <t>jeremia</t>
-  </si>
-  <si>
-    <t>dotto</t>
-  </si>
-  <si>
-    <t>jesca</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>mugisha</t>
-  </si>
-  <si>
-    <t>kipanta</t>
-  </si>
-  <si>
-    <t>tony</t>
-  </si>
-  <si>
-    <t>judith</t>
-  </si>
-  <si>
-    <t>kassim</t>
-  </si>
-  <si>
-    <t>kisumbo</t>
-  </si>
-  <si>
-    <t>milinga</t>
-  </si>
-  <si>
-    <t>levina</t>
-  </si>
-  <si>
-    <t>lucas</t>
-  </si>
-  <si>
-    <t>lucia</t>
-  </si>
-  <si>
-    <t>VENANCIA MWAMUNYANGE</t>
-  </si>
-  <si>
-    <t>jacob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOHN KINYAGA </t>
-  </si>
-  <si>
-    <t>GIDION CHRISTOPHER CHAO (MZ)</t>
-  </si>
-  <si>
-    <t>JOSEPH KIPANTA (MZ)</t>
-  </si>
-  <si>
-    <t>ANSBERT CLEMENCE RWEZAHURA (MZ)</t>
-  </si>
-  <si>
-    <t>VICTOR MARTIN MBOYA (MZ)</t>
-  </si>
-  <si>
-    <t>KISUMBO ELIRINGIA (MZ)</t>
-  </si>
-  <si>
-    <t>RAPHAEL SAMSON CHELELE (MZ)</t>
-  </si>
-  <si>
-    <t>ANNASTAZIA PAUL (MZ)</t>
-  </si>
-  <si>
-    <t>DEODATUS CHRISTANT MWENDAPOLE (MZ)</t>
-  </si>
-  <si>
-    <t>JAMILA MAUMBA (MZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JACKLINE KAPELA </t>
-  </si>
-  <si>
-    <t>HAJI MWAMETA (MZ)</t>
-  </si>
-  <si>
-    <t>RODIN MADEMBWE (MZ)</t>
-  </si>
-  <si>
-    <t>YOHANA MWENDA  (MZ)</t>
-  </si>
-  <si>
-    <t>CHEJA YUSUPH MALILA (MZ)</t>
-  </si>
-  <si>
-    <t>LIGHTNESS SAMHENDA (MZ)</t>
-  </si>
-  <si>
-    <t>SPENSER LISHULA  (MZ)</t>
-  </si>
-  <si>
-    <t>JANETH JOSEPH (MZ)</t>
-  </si>
-  <si>
-    <t>FELIX MKUMBI (MZ)</t>
-  </si>
-  <si>
-    <t>DORAN LUNYORO (MZ)</t>
-  </si>
-  <si>
-    <t>ELINE ANSELM ASIGE (MZ)</t>
-  </si>
-  <si>
-    <t>AMAN MUSSA (MZ)</t>
-  </si>
-  <si>
-    <t>urassa</t>
-  </si>
-  <si>
-    <t>mariam</t>
-  </si>
-  <si>
-    <t>muruke</t>
-  </si>
-  <si>
-    <t>IDD MURUKE</t>
+    <t>Momade Juma</t>
+  </si>
+  <si>
+    <t>Alexandre Gabriel Alamo</t>
+  </si>
+  <si>
+    <t>Arminda Alberto P. Dique</t>
+  </si>
+  <si>
+    <t>Marina António Vielas</t>
+  </si>
+  <si>
+    <t>Carlota José Panda Dambo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fátima Juma dos Caniras </t>
+  </si>
+  <si>
+    <t>Alexandre Luís da  Rocha</t>
+  </si>
+  <si>
+    <t>Wilson Arlindo J. Wilson</t>
+  </si>
+  <si>
+    <t>Edson Ricardo Manuel</t>
+  </si>
+  <si>
+    <t>Assucena Arlindo Cau</t>
+  </si>
+  <si>
+    <t>Tadeu Cornélio Juakali</t>
+  </si>
+  <si>
+    <t>Paulino S. Rapulana</t>
+  </si>
+  <si>
+    <t>Lino da Costa Alojamento</t>
+  </si>
+  <si>
+    <t>Dénio J. da Costa Rosário</t>
+  </si>
+  <si>
+    <t>Lina Eugenia Arone Chiziane</t>
+  </si>
+  <si>
+    <t>Ali Yunussa</t>
+  </si>
+  <si>
+    <t>Abubacar S. R. de Lemos</t>
+  </si>
+  <si>
+    <t>Arsénio A.B.Ferrão Pentear</t>
+  </si>
+  <si>
+    <t>Joana Mateus Lilanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joaquim Domingos Chissano </t>
+  </si>
+  <si>
+    <t>João José Nhoca</t>
+  </si>
+  <si>
+    <t>Augusta V. P. N. Félix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ledito Paulino Jorge </t>
+  </si>
+  <si>
+    <t>Valdomar José Baptista</t>
+  </si>
+  <si>
+    <t>Sílvia Joana Bule</t>
+  </si>
+  <si>
+    <t>Hermínio Dereito Pogule</t>
+  </si>
+  <si>
+    <t>Focas C.Malimbili</t>
+  </si>
+  <si>
+    <t>Selemane de C.M. Cebola</t>
+  </si>
+  <si>
+    <t>Félix Florêncio Marcelino</t>
+  </si>
+  <si>
+    <t>Fernando C. Luís Fernando</t>
+  </si>
+  <si>
+    <t>Hamus Túrio Jorge Cossa</t>
+  </si>
+  <si>
+    <t>Énia da Francisca Cau</t>
+  </si>
+  <si>
+    <t>Glória de Graça A. Marrile</t>
+  </si>
+  <si>
+    <t>Elísio Paulo Hospital Jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristiano António Colher </t>
+  </si>
+  <si>
+    <t>Eusébio Júnior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angélica Horténcia Mawai </t>
+  </si>
+  <si>
+    <t>Teresa Olímpio Fareja</t>
+  </si>
+  <si>
+    <t>Neves Rodrigues Joaquim</t>
+  </si>
+  <si>
+    <t>Gamito T. Benade Lesta</t>
+  </si>
+  <si>
+    <t>Calid Rodrigues da Cunha</t>
+  </si>
+  <si>
+    <t>Énia Elias Caanai Mouzinho</t>
+  </si>
+  <si>
+    <t>Adriano César Muhate</t>
+  </si>
+  <si>
+    <t>Teresa Pedro Guiamba</t>
+  </si>
+  <si>
+    <t>Mateus Américo</t>
+  </si>
+  <si>
+    <t>Tánia C. Leite Munarapa</t>
+  </si>
+  <si>
+    <t>Ageu de Celso B. Francisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graça Carlos Muandipezar </t>
+  </si>
+  <si>
+    <t>Maurício Alberto Madjenje</t>
+  </si>
+  <si>
+    <t>Mércia Bernardo Mandlate</t>
+  </si>
+  <si>
+    <t>Temótio José</t>
+  </si>
+  <si>
+    <t>Orlando Martinho Rafael</t>
+  </si>
+  <si>
+    <t>Jorge João Armindo</t>
+  </si>
+  <si>
+    <t>Hermenigildo Jorge Ticha</t>
+  </si>
+  <si>
+    <t>Gildo Ernesto Ngove</t>
+  </si>
+  <si>
+    <t>Dério Félix Machavane</t>
+  </si>
+  <si>
+    <t>Florindo Soares Miguel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Júlio Augusto Basílio </t>
+  </si>
+  <si>
+    <t>Isarda Amina C. Impuana</t>
+  </si>
+  <si>
+    <t>Abrante Fernando T.Conde</t>
+  </si>
+  <si>
+    <t>Janas Rui Vilanculos</t>
+  </si>
+  <si>
+    <t>Argentina da Maya Malevo</t>
+  </si>
+  <si>
+    <t>Nortêncio Encia José</t>
+  </si>
+  <si>
+    <t>Hortência Fernando</t>
+  </si>
+  <si>
+    <t>Francisco A. M. de Sousa</t>
+  </si>
+  <si>
+    <t>Renuxe Bernardo Raquito</t>
+  </si>
+  <si>
+    <t>Artur Placido Malate</t>
+  </si>
+  <si>
+    <t>Francisca das Rosas Langa</t>
+  </si>
+  <si>
+    <t>Rachide Issufo</t>
+  </si>
+  <si>
+    <t>Neves Armando C.Tomo</t>
+  </si>
+  <si>
+    <t>Amâncio Oliveira Brito</t>
+  </si>
+  <si>
+    <t>Regina Armindo Bila</t>
+  </si>
+  <si>
+    <t>Zito José Luís</t>
+  </si>
+  <si>
+    <t>Ana António Macie</t>
+  </si>
+  <si>
+    <t>Sandra Dias</t>
+  </si>
+  <si>
+    <t>Nilsa Antonio</t>
+  </si>
+  <si>
+    <t>Neci Gimo</t>
+  </si>
+  <si>
+    <t>Adriana Castro</t>
+  </si>
+  <si>
+    <t>Valetim Raposo</t>
+  </si>
+  <si>
+    <t>Belarmino Pindela</t>
+  </si>
+  <si>
+    <t>Mulungo</t>
+  </si>
+  <si>
+    <t>Rute</t>
+  </si>
+  <si>
+    <t>Nelson Mula</t>
+  </si>
+  <si>
+    <t>Adriano Matsimbe</t>
+  </si>
+  <si>
+    <t>Domingos Malate</t>
+  </si>
+  <si>
+    <t>Arnaldo Moreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berta </t>
+  </si>
+  <si>
+    <t>Bernardina Milissao</t>
+  </si>
+  <si>
+    <t>carlota</t>
+  </si>
+  <si>
+    <t>fatima</t>
+  </si>
+  <si>
+    <t>wilson</t>
+  </si>
+  <si>
+    <t>edson</t>
+  </si>
+  <si>
+    <t>neci</t>
+  </si>
+  <si>
+    <t>assucena</t>
+  </si>
+  <si>
+    <t>tadeu</t>
+  </si>
+  <si>
+    <t>paulino</t>
+  </si>
+  <si>
+    <t>lino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">momade </t>
+  </si>
+  <si>
+    <t>arminda</t>
+  </si>
+  <si>
+    <t>marina</t>
+  </si>
+  <si>
+    <t>nilsa</t>
+  </si>
+  <si>
+    <t>adriana</t>
+  </si>
+  <si>
+    <t>lina</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>abubacar</t>
+  </si>
+  <si>
+    <t>valetim</t>
+  </si>
+  <si>
+    <t>joana</t>
+  </si>
+  <si>
+    <t>joaquim</t>
+  </si>
+  <si>
+    <t>augusta</t>
+  </si>
+  <si>
+    <t>belarmino</t>
+  </si>
+  <si>
+    <t>ledito</t>
+  </si>
+  <si>
+    <t>valdomar</t>
+  </si>
+  <si>
+    <t>focas</t>
+  </si>
+  <si>
+    <t>mulungo</t>
+  </si>
+  <si>
+    <t>selemane</t>
+  </si>
+  <si>
+    <t>fernando</t>
+  </si>
+  <si>
+    <t>hamus</t>
+  </si>
+  <si>
+    <t>rute</t>
+  </si>
+  <si>
+    <t>cristiano</t>
+  </si>
+  <si>
+    <t>nelson</t>
+  </si>
+  <si>
+    <t>neves</t>
+  </si>
+  <si>
+    <t>gamito</t>
+  </si>
+  <si>
+    <t>calid</t>
+  </si>
+  <si>
+    <t>adriano</t>
+  </si>
+  <si>
+    <t>mateus</t>
+  </si>
+  <si>
+    <t>domingos</t>
+  </si>
+  <si>
+    <t>ageu</t>
+  </si>
+  <si>
+    <t>arnaldo</t>
+  </si>
+  <si>
+    <t>orlando</t>
+  </si>
+  <si>
+    <t>jorge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berta </t>
+  </si>
+  <si>
+    <t>hermenigildo</t>
+  </si>
+  <si>
+    <t>gildo</t>
+  </si>
+  <si>
+    <t>florindo</t>
+  </si>
+  <si>
+    <t>bernardina</t>
+  </si>
+  <si>
+    <t>isarda</t>
+  </si>
+  <si>
+    <t>abrante</t>
+  </si>
+  <si>
+    <t>janas</t>
+  </si>
+  <si>
+    <t>argentina</t>
+  </si>
+  <si>
+    <t>francisco</t>
+  </si>
+  <si>
+    <t>renuxe</t>
+  </si>
+  <si>
+    <t>artur</t>
+  </si>
+  <si>
+    <t>francisca</t>
+  </si>
+  <si>
+    <t>rachide</t>
+  </si>
+  <si>
+    <t>regina</t>
+  </si>
+  <si>
+    <t>zito</t>
+  </si>
+  <si>
+    <t>ana</t>
+  </si>
+  <si>
+    <t>denio</t>
+  </si>
+  <si>
+    <t>arsenio</t>
+  </si>
+  <si>
+    <t>joao</t>
+  </si>
+  <si>
+    <t>silvia</t>
+  </si>
+  <si>
+    <t>herminio</t>
+  </si>
+  <si>
+    <t>elisio</t>
+  </si>
+  <si>
+    <t>eusebio</t>
+  </si>
+  <si>
+    <t>angelica</t>
+  </si>
+  <si>
+    <t>nevesj</t>
+  </si>
+  <si>
+    <t>eniam</t>
+  </si>
+  <si>
+    <t>eniac</t>
+  </si>
+  <si>
+    <t>tania</t>
+  </si>
+  <si>
+    <t>graca</t>
+  </si>
+  <si>
+    <t>mauricio</t>
+  </si>
+  <si>
+    <t>mercia</t>
+  </si>
+  <si>
+    <t>temotio</t>
+  </si>
+  <si>
+    <t>julio</t>
+  </si>
+  <si>
+    <t>nortencio</t>
+  </si>
+  <si>
+    <t>hortencia</t>
+  </si>
+  <si>
+    <t>amancio</t>
+  </si>
+  <si>
+    <t>gloria</t>
+  </si>
+  <si>
+    <t>alexandrea</t>
+  </si>
+  <si>
+    <t>alexandrer</t>
+  </si>
+  <si>
+    <t>derio</t>
+  </si>
+  <si>
+    <t>matsimbe</t>
+  </si>
+  <si>
+    <t>teresag</t>
+  </si>
+  <si>
+    <t>teresaf</t>
+  </si>
+  <si>
+    <t>Ernesto Langa</t>
+  </si>
+  <si>
+    <t>ernesto</t>
+  </si>
+  <si>
+    <t>Paula Omia</t>
+  </si>
+  <si>
+    <t>paula</t>
+  </si>
+  <si>
+    <t>Mácida</t>
+  </si>
+  <si>
+    <t>macida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -631,6 +756,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,22 +1072,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43E83A9-4175-4444-8AB1-9925632E1DE6}">
-  <dimension ref="A1:E72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -976,9 +1104,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -988,12 +1116,12 @@
         <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -1002,15 +1130,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1019,15 +1147,15 @@
         <v>200</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -1036,15 +1164,15 @@
         <v>400</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -1053,15 +1181,15 @@
         <v>600</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -1070,15 +1198,15 @@
         <v>800</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="B8" s="7">
         <v>2</v>
@@ -1088,12 +1216,12 @@
         <v>5</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -1102,15 +1230,15 @@
         <v>100</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -1119,15 +1247,15 @@
         <v>300</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
@@ -1136,15 +1264,15 @@
         <v>500</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
@@ -1153,15 +1281,15 @@
         <v>700</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B13" s="7">
         <v>3</v>
@@ -1171,12 +1299,12 @@
         <v>5</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
@@ -1185,15 +1313,15 @@
         <v>100</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B15" s="4">
         <v>3</v>
@@ -1202,15 +1330,15 @@
         <v>300</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B16" s="4">
         <v>3</v>
@@ -1219,15 +1347,15 @@
         <v>500</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
@@ -1236,15 +1364,15 @@
         <v>700</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B18" s="7">
         <v>4</v>
@@ -1254,12 +1382,12 @@
         <v>5</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="B19" s="4">
         <v>4</v>
@@ -1268,15 +1396,15 @@
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B20" s="4">
         <v>4</v>
@@ -1285,15 +1413,15 @@
         <v>200</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
@@ -1302,15 +1430,15 @@
         <v>400</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="B22" s="4">
         <v>4</v>
@@ -1319,15 +1447,15 @@
         <v>600</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="B23" s="4">
         <v>4</v>
@@ -1336,15 +1464,15 @@
         <v>800</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B24" s="7">
         <v>5</v>
@@ -1354,12 +1482,12 @@
         <v>5</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B25" s="4">
         <v>5</v>
@@ -1368,15 +1496,15 @@
         <v>100</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B26" s="4">
         <v>5</v>
@@ -1385,15 +1513,15 @@
         <v>300</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="B27" s="4">
         <v>5</v>
@@ -1402,15 +1530,15 @@
         <v>500</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B28" s="4">
         <v>5</v>
@@ -1419,15 +1547,15 @@
         <v>700</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B29" s="7">
         <v>6</v>
@@ -1437,12 +1565,12 @@
         <v>5</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B30" s="4">
         <v>6</v>
@@ -1451,15 +1579,15 @@
         <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B31" s="4">
         <v>6</v>
@@ -1468,15 +1596,15 @@
         <v>200</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="B32" s="4">
         <v>6</v>
@@ -1485,15 +1613,15 @@
         <v>400</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="B33" s="4">
         <v>6</v>
@@ -1502,15 +1630,15 @@
         <v>600</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="B34" s="4">
         <v>6</v>
@@ -1519,15 +1647,15 @@
         <v>800</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B35" s="7">
         <v>7</v>
@@ -1537,12 +1665,12 @@
         <v>5</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B36" s="4">
         <v>7</v>
@@ -1551,15 +1679,15 @@
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="B37" s="4">
         <v>7</v>
@@ -1568,15 +1696,15 @@
         <v>200</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="B38" s="4">
         <v>7</v>
@@ -1585,15 +1713,15 @@
         <v>400</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B39" s="4">
         <v>7</v>
@@ -1602,15 +1730,15 @@
         <v>600</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="B40" s="4">
         <v>7</v>
@@ -1619,15 +1747,15 @@
         <v>800</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B41" s="7">
         <v>8</v>
@@ -1637,12 +1765,12 @@
         <v>5</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="B42" s="4">
         <v>8</v>
@@ -1651,15 +1779,15 @@
         <v>100</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="B43" s="4">
         <v>8</v>
@@ -1668,15 +1796,15 @@
         <v>300</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="B44" s="4">
         <v>8</v>
@@ -1685,15 +1813,15 @@
         <v>500</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="B45" s="4">
         <v>8</v>
@@ -1702,15 +1830,15 @@
         <v>700</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B46" s="7">
         <v>9</v>
@@ -1720,12 +1848,12 @@
         <v>5</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="B47" s="4">
         <v>9</v>
@@ -1734,15 +1862,15 @@
         <v>1</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="B48" s="4">
         <v>9</v>
@@ -1751,15 +1879,15 @@
         <v>200</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="B49" s="4">
         <v>9</v>
@@ -1768,15 +1896,15 @@
         <v>400</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B50" s="4">
         <v>9</v>
@@ -1785,15 +1913,15 @@
         <v>600</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B51" s="4">
         <v>9</v>
@@ -1802,15 +1930,15 @@
         <v>800</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="B52" s="7">
         <v>10</v>
@@ -1820,12 +1948,12 @@
         <v>5</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="B53" s="4">
         <v>10</v>
@@ -1834,15 +1962,15 @@
         <v>100</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="B54" s="4">
         <v>10</v>
@@ -1851,15 +1979,15 @@
         <v>300</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="B55" s="4">
         <v>10</v>
@@ -1868,15 +1996,15 @@
         <v>500</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="B56" s="4">
         <v>10</v>
@@ -1885,15 +2013,15 @@
         <v>700</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="B57" s="7">
         <v>11</v>
@@ -1903,12 +2031,12 @@
         <v>5</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="B58" s="4">
         <v>11</v>
@@ -1917,15 +2045,15 @@
         <v>100</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B59" s="4">
         <v>11</v>
@@ -1934,15 +2062,15 @@
         <v>300</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="B60" s="4">
         <v>11</v>
@@ -1951,15 +2079,15 @@
         <v>500</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B61" s="4">
         <v>11</v>
@@ -1968,15 +2096,15 @@
         <v>700</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B62" s="7">
         <v>12</v>
@@ -1986,12 +2114,12 @@
         <v>5</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="B63" s="4">
         <v>12</v>
@@ -2000,15 +2128,15 @@
         <v>100</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="B64" s="4">
         <v>12</v>
@@ -2017,15 +2145,15 @@
         <v>300</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B65" s="4">
         <v>12</v>
@@ -2034,15 +2162,15 @@
         <v>500</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B66" s="4">
         <v>12</v>
@@ -2051,15 +2179,15 @@
         <v>700</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B67" s="7">
         <v>13</v>
@@ -2069,12 +2197,12 @@
         <v>5</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="B68" s="4">
         <v>13</v>
@@ -2083,15 +2211,15 @@
         <v>100</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="B69" s="4">
         <v>13</v>
@@ -2100,15 +2228,15 @@
         <v>300</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="B70" s="4">
         <v>13</v>
@@ -2117,15 +2245,15 @@
         <v>500</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="B71" s="4">
         <v>13</v>
@@ -2134,13 +2262,361 @@
         <v>700</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="17">
+        <v>13</v>
+      </c>
+      <c r="C72" s="17"/>
+      <c r="D72" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" s="15">
+        <v>14</v>
+      </c>
+      <c r="C73" s="4">
+        <v>100</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="15">
+        <v>14</v>
+      </c>
+      <c r="C74" s="4">
+        <v>300</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75">
+        <v>14</v>
+      </c>
+      <c r="C75" s="4">
+        <v>500</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76">
+        <v>14</v>
+      </c>
+      <c r="C76" s="4">
+        <v>700</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" s="16">
+        <v>15</v>
+      </c>
+      <c r="C77" s="16"/>
+      <c r="D77" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78">
+        <v>15</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79">
+        <v>15</v>
+      </c>
+      <c r="C79" s="4">
+        <v>200</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80">
+        <v>15</v>
+      </c>
+      <c r="C80" s="4">
+        <v>400</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81">
+        <v>15</v>
+      </c>
+      <c r="C81" s="4">
+        <v>600</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82">
+        <v>15</v>
+      </c>
+      <c r="C82" s="4">
+        <v>800</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B83" s="16">
+        <v>16</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>150</v>
+      </c>
+      <c r="B84">
+        <v>16</v>
+      </c>
+      <c r="C84" s="4">
+        <v>100</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85">
+        <v>16</v>
+      </c>
+      <c r="C85" s="4">
+        <v>300</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>152</v>
+      </c>
+      <c r="B86">
+        <v>16</v>
+      </c>
+      <c r="C86" s="4">
+        <v>500</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87">
+        <v>16</v>
+      </c>
+      <c r="C87" s="4">
+        <v>700</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B88">
+        <v>17</v>
+      </c>
+      <c r="C88" s="16"/>
+      <c r="D88" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89">
+        <v>17</v>
+      </c>
+      <c r="C89" s="4">
+        <v>100</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90">
+        <v>17</v>
+      </c>
+      <c r="C90" s="4">
+        <v>300</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91">
+        <v>17</v>
+      </c>
+      <c r="C91" s="4">
+        <v>500</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92">
+        <v>17</v>
+      </c>
+      <c r="C92" s="4">
+        <v>700</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LookupFiles/users.xlsx
+++ b/LookupFiles/users.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="163">
   <si>
     <t>Login</t>
   </si>
@@ -50,9 +50,6 @@
     <t>sandra</t>
   </si>
   <si>
-    <t>felix</t>
-  </si>
-  <si>
     <t>Momade Juma</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>Sílvia Joana Bule</t>
   </si>
   <si>
-    <t>Hermínio Dereito Pogule</t>
-  </si>
-  <si>
     <t>Focas C.Malimbili</t>
   </si>
   <si>
@@ -146,9 +140,6 @@
     <t>Hamus Túrio Jorge Cossa</t>
   </si>
   <si>
-    <t>Énia da Francisca Cau</t>
-  </si>
-  <si>
     <t>Glória de Graça A. Marrile</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
     <t xml:space="preserve">Angélica Horténcia Mawai </t>
   </si>
   <si>
-    <t>Teresa Olímpio Fareja</t>
-  </si>
-  <si>
     <t>Neves Rodrigues Joaquim</t>
   </si>
   <si>
@@ -182,9 +170,6 @@
     <t>Adriano César Muhate</t>
   </si>
   <si>
-    <t>Teresa Pedro Guiamba</t>
-  </si>
-  <si>
     <t>Mateus Américo</t>
   </si>
   <si>
@@ -200,9 +185,6 @@
     <t>Maurício Alberto Madjenje</t>
   </si>
   <si>
-    <t>Mércia Bernardo Mandlate</t>
-  </si>
-  <si>
     <t>Temótio José</t>
   </si>
   <si>
@@ -218,9 +200,6 @@
     <t>Gildo Ernesto Ngove</t>
   </si>
   <si>
-    <t>Dério Félix Machavane</t>
-  </si>
-  <si>
     <t>Florindo Soares Miguel</t>
   </si>
   <si>
@@ -236,9 +215,6 @@
     <t>Janas Rui Vilanculos</t>
   </si>
   <si>
-    <t>Argentina da Maya Malevo</t>
-  </si>
-  <si>
     <t>Nortêncio Encia José</t>
   </si>
   <si>
@@ -254,9 +230,6 @@
     <t>Artur Placido Malate</t>
   </si>
   <si>
-    <t>Francisca das Rosas Langa</t>
-  </si>
-  <si>
     <t>Rachide Issufo</t>
   </si>
   <si>
@@ -272,66 +245,33 @@
     <t>Zito José Luís</t>
   </si>
   <si>
-    <t>Ana António Macie</t>
-  </si>
-  <si>
     <t>Sandra Dias</t>
   </si>
   <si>
-    <t>Nilsa Antonio</t>
-  </si>
-  <si>
     <t>Neci Gimo</t>
   </si>
   <si>
     <t>Adriana Castro</t>
   </si>
   <si>
-    <t>Valetim Raposo</t>
-  </si>
-  <si>
     <t>Belarmino Pindela</t>
   </si>
   <si>
-    <t>Mulungo</t>
-  </si>
-  <si>
-    <t>Rute</t>
-  </si>
-  <si>
     <t>Nelson Mula</t>
   </si>
   <si>
-    <t>Adriano Matsimbe</t>
-  </si>
-  <si>
     <t>Domingos Malate</t>
   </si>
   <si>
-    <t>Arnaldo Moreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berta </t>
-  </si>
-  <si>
-    <t>Bernardina Milissao</t>
-  </si>
-  <si>
     <t>carlota</t>
   </si>
   <si>
-    <t>fatima</t>
-  </si>
-  <si>
     <t>wilson</t>
   </si>
   <si>
     <t>edson</t>
   </si>
   <si>
-    <t>neci</t>
-  </si>
-  <si>
     <t>assucena</t>
   </si>
   <si>
@@ -353,9 +293,6 @@
     <t>marina</t>
   </si>
   <si>
-    <t>nilsa</t>
-  </si>
-  <si>
     <t>adriana</t>
   </si>
   <si>
@@ -368,9 +305,6 @@
     <t>abubacar</t>
   </si>
   <si>
-    <t>valetim</t>
-  </si>
-  <si>
     <t>joana</t>
   </si>
   <si>
@@ -392,9 +326,6 @@
     <t>focas</t>
   </si>
   <si>
-    <t>mulungo</t>
-  </si>
-  <si>
     <t>selemane</t>
   </si>
   <si>
@@ -404,18 +335,9 @@
     <t>hamus</t>
   </si>
   <si>
-    <t>rute</t>
-  </si>
-  <si>
-    <t>cristiano</t>
-  </si>
-  <si>
     <t>nelson</t>
   </si>
   <si>
-    <t>neves</t>
-  </si>
-  <si>
     <t>gamito</t>
   </si>
   <si>
@@ -434,18 +356,12 @@
     <t>ageu</t>
   </si>
   <si>
-    <t>arnaldo</t>
-  </si>
-  <si>
     <t>orlando</t>
   </si>
   <si>
     <t>jorge</t>
   </si>
   <si>
-    <t xml:space="preserve">berta </t>
-  </si>
-  <si>
     <t>hermenigildo</t>
   </si>
   <si>
@@ -467,9 +383,6 @@
     <t>janas</t>
   </si>
   <si>
-    <t>argentina</t>
-  </si>
-  <si>
     <t>francisco</t>
   </si>
   <si>
@@ -479,9 +392,6 @@
     <t>artur</t>
   </si>
   <si>
-    <t>francisca</t>
-  </si>
-  <si>
     <t>rachide</t>
   </si>
   <si>
@@ -491,106 +401,118 @@
     <t>zito</t>
   </si>
   <si>
-    <t>ana</t>
-  </si>
-  <si>
-    <t>denio</t>
-  </si>
-  <si>
-    <t>arsenio</t>
-  </si>
-  <si>
-    <t>joao</t>
-  </si>
-  <si>
-    <t>silvia</t>
-  </si>
-  <si>
-    <t>herminio</t>
-  </si>
-  <si>
-    <t>elisio</t>
-  </si>
-  <si>
-    <t>eusebio</t>
-  </si>
-  <si>
-    <t>angelica</t>
+    <t>ernesto</t>
+  </si>
+  <si>
+    <t>fátima</t>
+  </si>
+  <si>
+    <t>dénio</t>
+  </si>
+  <si>
+    <t>arsénio</t>
+  </si>
+  <si>
+    <t>joão</t>
+  </si>
+  <si>
+    <t>sílvia</t>
+  </si>
+  <si>
+    <t>félix</t>
+  </si>
+  <si>
+    <t>glória</t>
+  </si>
+  <si>
+    <t>elísio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cristiano </t>
+  </si>
+  <si>
+    <t>eusébio</t>
+  </si>
+  <si>
+    <t>angélica</t>
+  </si>
+  <si>
+    <t>énia</t>
+  </si>
+  <si>
+    <t>tánia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graça </t>
+  </si>
+  <si>
+    <t>maurício</t>
+  </si>
+  <si>
+    <t>temótio</t>
+  </si>
+  <si>
+    <t>júlio</t>
+  </si>
+  <si>
+    <t>nortêncio</t>
+  </si>
+  <si>
+    <t>hortência</t>
+  </si>
+  <si>
+    <t>amâncio</t>
+  </si>
+  <si>
+    <t>fanuel</t>
+  </si>
+  <si>
+    <t>Fanuel Boa</t>
+  </si>
+  <si>
+    <t>nilza</t>
+  </si>
+  <si>
+    <t>Nilza António</t>
+  </si>
+  <si>
+    <t>Berta</t>
+  </si>
+  <si>
+    <t>berta</t>
+  </si>
+  <si>
+    <t>valentim</t>
+  </si>
+  <si>
+    <t>Valentim Raposo</t>
+  </si>
+  <si>
+    <t>Ernesto Mulungo</t>
+  </si>
+  <si>
+    <t>Ângelo Intimane</t>
+  </si>
+  <si>
+    <t>angelo</t>
+  </si>
+  <si>
+    <t>Bernardina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neci </t>
+  </si>
+  <si>
+    <t>alexandrea</t>
+  </si>
+  <si>
+    <t>alexandrer</t>
   </si>
   <si>
     <t>nevesj</t>
   </si>
   <si>
-    <t>eniam</t>
-  </si>
-  <si>
-    <t>eniac</t>
-  </si>
-  <si>
-    <t>tania</t>
-  </si>
-  <si>
-    <t>graca</t>
-  </si>
-  <si>
-    <t>mauricio</t>
-  </si>
-  <si>
-    <t>mercia</t>
-  </si>
-  <si>
-    <t>temotio</t>
-  </si>
-  <si>
-    <t>julio</t>
-  </si>
-  <si>
-    <t>nortencio</t>
-  </si>
-  <si>
-    <t>hortencia</t>
-  </si>
-  <si>
-    <t>amancio</t>
-  </si>
-  <si>
-    <t>gloria</t>
-  </si>
-  <si>
-    <t>alexandrea</t>
-  </si>
-  <si>
-    <t>alexandrer</t>
-  </si>
-  <si>
-    <t>derio</t>
-  </si>
-  <si>
-    <t>matsimbe</t>
-  </si>
-  <si>
-    <t>teresag</t>
-  </si>
-  <si>
-    <t>teresaf</t>
-  </si>
-  <si>
-    <t>Ernesto Langa</t>
-  </si>
-  <si>
-    <t>ernesto</t>
-  </si>
-  <si>
-    <t>Paula Omia</t>
-  </si>
-  <si>
-    <t>paula</t>
-  </si>
-  <si>
-    <t>Mácida</t>
-  </si>
-  <si>
-    <t>macida</t>
+    <t>nevest</t>
   </si>
 </sst>
 </file>
@@ -664,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -732,11 +654,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -756,9 +715,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A65" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,22 +1070,22 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B2" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -1133,12 +1097,12 @@
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1150,12 +1114,12 @@
         <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -1167,12 +1131,12 @@
         <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -1184,12 +1148,12 @@
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -1201,27 +1165,27 @@
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -1233,12 +1197,12 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -1250,12 +1214,12 @@
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
@@ -1267,12 +1231,12 @@
         <v>6</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
@@ -1284,399 +1248,399 @@
         <v>6</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>900</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="7">
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="7">
         <v>3</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="4">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4">
-        <v>100</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>18</v>
+      <c r="E14" s="8" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B15" s="4">
         <v>3</v>
       </c>
       <c r="C15" s="4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B16" s="4">
         <v>3</v>
       </c>
       <c r="C16" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>20</v>
+      <c r="E16" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
       </c>
       <c r="C17" s="4">
+        <v>500</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4">
         <v>700</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="7">
-        <v>4</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>900</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B20" s="7">
         <v>4</v>
       </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="4">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4">
-        <v>200</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>23</v>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
       </c>
       <c r="C21" s="4">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>24</v>
+      <c r="E21" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B22" s="4">
         <v>4</v>
       </c>
       <c r="C22" s="4">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>25</v>
+      <c r="E22" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B23" s="4">
         <v>4</v>
       </c>
       <c r="C23" s="4">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
+        <v>600</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="7">
-        <v>5</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4">
+        <v>800</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="7">
         <v>5</v>
       </c>
-      <c r="C25" s="4">
-        <v>100</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="4">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="4">
-        <v>300</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>28</v>
+      <c r="E26" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B27" s="4">
         <v>5</v>
       </c>
       <c r="C27" s="4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>29</v>
+      <c r="E27" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B28" s="4">
         <v>5</v>
       </c>
       <c r="C28" s="4">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="4">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4">
+        <v>500</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="7">
-        <v>6</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B30" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B31" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4">
-        <v>200</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32" s="4">
-        <v>6</v>
-      </c>
-      <c r="C32" s="4">
-        <v>400</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>33</v>
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="7">
+        <v>6</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="B33" s="4">
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>34</v>
+      <c r="E33" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B34" s="4">
         <v>6</v>
       </c>
       <c r="C34" s="4">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="4">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4">
+        <v>400</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="7">
-        <v>7</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B36" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" s="4">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>6</v>
@@ -1687,113 +1651,113 @@
     </row>
     <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B37" s="4">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4">
+        <v>800</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="7">
         <v>7</v>
       </c>
-      <c r="C37" s="4">
-        <v>200</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="4">
-        <v>7</v>
-      </c>
-      <c r="C38" s="4">
-        <v>400</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>38</v>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B39" s="4">
         <v>7</v>
       </c>
       <c r="C39" s="4">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>39</v>
+      <c r="E39" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="B40" s="4">
         <v>7</v>
       </c>
       <c r="C40" s="4">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="4">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4">
+        <v>400</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="7">
-        <v>8</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="B42" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" s="4">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B43" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" s="4">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>6</v>
@@ -1802,327 +1766,323 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="4">
+    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="7">
         <v>8</v>
       </c>
-      <c r="C44" s="4">
-        <v>500</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B45" s="4">
         <v>8</v>
       </c>
       <c r="C45" s="4">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="4">
+        <v>8</v>
+      </c>
+      <c r="C46" s="4">
+        <v>300</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="7">
-        <v>9</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="B47" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47" s="4">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="B48" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" s="4">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="B49" s="4">
+        <v>8</v>
+      </c>
+      <c r="C49" s="4">
+        <v>900</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="7">
         <v>9</v>
       </c>
-      <c r="C49" s="4">
-        <v>400</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="4">
-        <v>9</v>
-      </c>
-      <c r="C50" s="4">
-        <v>600</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>48</v>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B51" s="4">
         <v>9</v>
       </c>
       <c r="C51" s="4">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="4">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4">
+        <v>200</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B52" s="7">
-        <v>10</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="B53" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" s="4">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B54" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" s="4">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="B55" s="4">
+        <v>9</v>
+      </c>
+      <c r="C55" s="4">
+        <v>800</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="7">
         <v>10</v>
       </c>
-      <c r="C55" s="4">
-        <v>500</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B56" s="4">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="4">
         <v>10</v>
       </c>
-      <c r="C56" s="4">
-        <v>700</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="5" t="s">
+      <c r="C57" s="4">
+        <v>100</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" s="7">
-        <v>11</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="B58" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58" s="4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B59" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" s="4">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="B60" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60" s="4">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="B61" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61" s="4">
-        <v>700</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="B62" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="B63" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" s="4">
         <v>100</v>
@@ -2130,16 +2090,16 @@
       <c r="D63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="B64" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" s="4">
         <v>300</v>
@@ -2147,16 +2107,16 @@
       <c r="D64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B65" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" s="4">
         <v>500</v>
@@ -2164,16 +2124,16 @@
       <c r="D65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B66" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" s="4">
         <v>700</v>
@@ -2181,51 +2141,49 @@
       <c r="D66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B67" s="7">
-        <v>13</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7" t="s">
+    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="4">
+        <v>11</v>
+      </c>
+      <c r="C67" s="4">
+        <v>900</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="7">
+        <v>11</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" s="4">
-        <v>13</v>
-      </c>
-      <c r="C68" s="4">
-        <v>100</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>62</v>
+      <c r="E68" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B69" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69" s="4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>6</v>
@@ -2236,30 +2194,30 @@
     </row>
     <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B70" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C70" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B71" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71" s="4">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>6</v>
@@ -2268,354 +2226,142 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="17">
+    <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="4">
+        <v>12</v>
+      </c>
+      <c r="C72" s="4">
+        <v>700</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="4">
+        <v>12</v>
+      </c>
+      <c r="C73" s="4">
+        <v>900</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="7">
+        <v>4</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="4">
         <v>13</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>172</v>
-      </c>
-      <c r="B73" s="15">
-        <v>14</v>
-      </c>
-      <c r="C73" s="4">
+      <c r="C75" s="4">
         <v>100</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>144</v>
-      </c>
-      <c r="B74" s="15">
-        <v>14</v>
-      </c>
-      <c r="C74" s="4">
+      <c r="D75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="4">
+        <v>13</v>
+      </c>
+      <c r="C76" s="4">
         <v>300</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="D76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B75">
-        <v>14</v>
-      </c>
-      <c r="C75" s="4">
+      <c r="B77" s="4">
+        <v>13</v>
+      </c>
+      <c r="C77" s="4">
         <v>500</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>146</v>
-      </c>
-      <c r="B76">
-        <v>14</v>
-      </c>
-      <c r="C76" s="4">
+      <c r="D77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="4">
+        <v>13</v>
+      </c>
+      <c r="C78" s="4">
         <v>700</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B77" s="16">
-        <v>15</v>
-      </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>147</v>
-      </c>
-      <c r="B78">
-        <v>15</v>
-      </c>
-      <c r="C78" s="4">
-        <v>1</v>
-      </c>
       <c r="D78" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E78" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>173</v>
-      </c>
-      <c r="B79">
-        <v>15</v>
-      </c>
-      <c r="C79" s="4">
-        <v>200</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="E78" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>174</v>
-      </c>
-      <c r="B80">
-        <v>15</v>
-      </c>
-      <c r="C80" s="4">
-        <v>400</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" t="s">
+    <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="4">
+        <v>13</v>
+      </c>
+      <c r="C79" s="21">
+        <v>900</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>148</v>
-      </c>
-      <c r="B81">
-        <v>15</v>
-      </c>
-      <c r="C81" s="4">
-        <v>600</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82">
-        <v>15</v>
-      </c>
-      <c r="C82" s="4">
-        <v>800</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="B83" s="16">
-        <v>16</v>
-      </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>150</v>
-      </c>
-      <c r="B84">
-        <v>16</v>
-      </c>
-      <c r="C84" s="4">
-        <v>100</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>151</v>
-      </c>
-      <c r="B85">
-        <v>16</v>
-      </c>
-      <c r="C85" s="4">
-        <v>300</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>152</v>
-      </c>
-      <c r="B86">
-        <v>16</v>
-      </c>
-      <c r="C86" s="4">
-        <v>500</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>129</v>
-      </c>
-      <c r="B87">
-        <v>16</v>
-      </c>
-      <c r="C87" s="4">
-        <v>700</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="B88">
-        <v>17</v>
-      </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89">
-        <v>17</v>
-      </c>
-      <c r="C89" s="4">
-        <v>100</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>153</v>
-      </c>
-      <c r="B90">
-        <v>17</v>
-      </c>
-      <c r="C90" s="4">
-        <v>300</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>154</v>
-      </c>
-      <c r="B91">
-        <v>17</v>
-      </c>
-      <c r="C91" s="4">
-        <v>500</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>155</v>
-      </c>
-      <c r="B92">
-        <v>17</v>
-      </c>
-      <c r="C92" s="4">
-        <v>700</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" t="s">
-        <v>82</v>
-      </c>
+    <row r="81" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LookupFiles/users.xlsx
+++ b/LookupFiles/users.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="164">
   <si>
     <t>Login</t>
   </si>
@@ -404,66 +404,12 @@
     <t>ernesto</t>
   </si>
   <si>
-    <t>fátima</t>
-  </si>
-  <si>
-    <t>dénio</t>
-  </si>
-  <si>
-    <t>arsénio</t>
-  </si>
-  <si>
-    <t>joão</t>
-  </si>
-  <si>
-    <t>sílvia</t>
-  </si>
-  <si>
-    <t>félix</t>
-  </si>
-  <si>
-    <t>glória</t>
-  </si>
-  <si>
-    <t>elísio</t>
-  </si>
-  <si>
     <t xml:space="preserve">cristiano </t>
   </si>
   <si>
-    <t>eusébio</t>
-  </si>
-  <si>
-    <t>angélica</t>
-  </si>
-  <si>
-    <t>énia</t>
-  </si>
-  <si>
-    <t>tánia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">graça </t>
-  </si>
-  <si>
-    <t>maurício</t>
-  </si>
-  <si>
-    <t>temótio</t>
-  </si>
-  <si>
     <t>júlio</t>
   </si>
   <si>
-    <t>nortêncio</t>
-  </si>
-  <si>
-    <t>hortência</t>
-  </si>
-  <si>
-    <t>amâncio</t>
-  </si>
-  <si>
     <t>fanuel</t>
   </si>
   <si>
@@ -491,9 +437,6 @@
     <t>Ernesto Mulungo</t>
   </si>
   <si>
-    <t>Ângelo Intimane</t>
-  </si>
-  <si>
     <t>angelo</t>
   </si>
   <si>
@@ -513,6 +456,66 @@
   </si>
   <si>
     <t>nevest</t>
+  </si>
+  <si>
+    <t>amancio</t>
+  </si>
+  <si>
+    <t>hortencia</t>
+  </si>
+  <si>
+    <t>nortencio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graca </t>
+  </si>
+  <si>
+    <t>tania</t>
+  </si>
+  <si>
+    <t>enia</t>
+  </si>
+  <si>
+    <t>angelica</t>
+  </si>
+  <si>
+    <t>gloria</t>
+  </si>
+  <si>
+    <t>silvia</t>
+  </si>
+  <si>
+    <t>felix</t>
+  </si>
+  <si>
+    <t>joao</t>
+  </si>
+  <si>
+    <t>arsenio</t>
+  </si>
+  <si>
+    <t>denio</t>
+  </si>
+  <si>
+    <t>fetima</t>
+  </si>
+  <si>
+    <t>elisio</t>
+  </si>
+  <si>
+    <t>eusebio</t>
+  </si>
+  <si>
+    <t>temotio</t>
+  </si>
+  <si>
+    <t>mauricio</t>
+  </si>
+  <si>
+    <t>Diquissone</t>
+  </si>
+  <si>
+    <t>diquissone</t>
   </si>
 </sst>
 </file>
@@ -1039,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A65" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,7 +1105,7 @@
     </row>
     <row r="4" spans="1:5" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1185,7 +1188,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -1202,7 +1205,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -1270,7 +1273,7 @@
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B14" s="7">
         <v>3</v>
@@ -1280,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1336,7 +1339,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
@@ -1370,7 +1373,7 @@
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B20" s="7">
         <v>4</v>
@@ -1380,7 +1383,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1419,7 +1422,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="B23" s="4">
         <v>4</v>
@@ -1480,12 +1483,12 @@
         <v>5</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B27" s="4">
         <v>5</v>
@@ -1553,7 +1556,7 @@
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B31" s="4">
         <v>5</v>
@@ -1617,7 +1620,7 @@
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B35" s="4">
         <v>6</v>
@@ -1668,7 +1671,7 @@
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B38" s="7">
         <v>7</v>
@@ -1678,12 +1681,12 @@
         <v>5</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B39" s="4">
         <v>7</v>
@@ -1700,7 +1703,7 @@
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B40" s="4">
         <v>7</v>
@@ -1717,7 +1720,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B41" s="4">
         <v>7</v>
@@ -1734,7 +1737,7 @@
     </row>
     <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="B42" s="4">
         <v>7</v>
@@ -1751,7 +1754,7 @@
     </row>
     <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B43" s="4">
         <v>7</v>
@@ -1768,7 +1771,7 @@
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B44" s="7">
         <v>8</v>
@@ -1778,12 +1781,12 @@
         <v>5</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B45" s="4">
         <v>8</v>
@@ -1834,7 +1837,7 @@
     </row>
     <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B48" s="4">
         <v>8</v>
@@ -1876,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1898,7 +1901,7 @@
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B52" s="4">
         <v>9</v>
@@ -1932,7 +1935,7 @@
     </row>
     <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B54" s="4">
         <v>9</v>
@@ -1949,7 +1952,7 @@
     </row>
     <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="B55" s="4">
         <v>9</v>
@@ -1966,7 +1969,7 @@
     </row>
     <row r="56" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B56" s="7">
         <v>10</v>
@@ -1976,12 +1979,12 @@
         <v>5</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B57" s="4">
         <v>10</v>
@@ -2064,7 +2067,7 @@
     </row>
     <row r="62" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B62" s="7">
         <v>11</v>
@@ -2096,7 +2099,7 @@
     </row>
     <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B64" s="4">
         <v>11</v>
@@ -2177,7 +2180,7 @@
     </row>
     <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B69" s="4">
         <v>12</v>
@@ -2194,7 +2197,7 @@
     </row>
     <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B70" s="4">
         <v>12</v>
@@ -2292,7 +2295,7 @@
     </row>
     <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B76" s="4">
         <v>13</v>
@@ -2309,7 +2312,7 @@
     </row>
     <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B77" s="4">
         <v>13</v>

--- a/LookupFiles/users.xlsx
+++ b/LookupFiles/users.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="163">
   <si>
     <t>Login</t>
   </si>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t>Ernesto Mulungo</t>
-  </si>
-  <si>
-    <t>angelo</t>
   </si>
   <si>
     <t>Bernardina</t>
@@ -1042,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,7 +1102,7 @@
     </row>
     <row r="4" spans="1:5" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1188,7 +1185,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -1205,7 +1202,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -1339,7 +1336,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
@@ -1373,7 +1370,7 @@
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="7">
         <v>4</v>
@@ -1383,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1422,7 +1419,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23" s="4">
         <v>4</v>
@@ -1488,7 +1485,7 @@
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27" s="4">
         <v>5</v>
@@ -1556,7 +1553,7 @@
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="4">
         <v>5</v>
@@ -1564,7 +1561,9 @@
       <c r="C31" s="4">
         <v>900</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1620,7 +1619,7 @@
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B35" s="4">
         <v>6</v>
@@ -1686,7 +1685,7 @@
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" s="4">
         <v>7</v>
@@ -1703,7 +1702,7 @@
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B40" s="4">
         <v>7</v>
@@ -1737,7 +1736,7 @@
     </row>
     <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B42" s="4">
         <v>7</v>
@@ -1754,7 +1753,7 @@
     </row>
     <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B43" s="4">
         <v>7</v>
@@ -1786,7 +1785,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B45" s="4">
         <v>8</v>
@@ -1837,7 +1836,7 @@
     </row>
     <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B48" s="4">
         <v>8</v>
@@ -1862,7 +1861,9 @@
       <c r="C49" s="4">
         <v>900</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E49" s="9" t="s">
         <v>47</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1901,7 +1902,7 @@
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B52" s="4">
         <v>9</v>
@@ -1935,7 +1936,7 @@
     </row>
     <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B54" s="4">
         <v>9</v>
@@ -1952,7 +1953,7 @@
     </row>
     <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B55" s="4">
         <v>9</v>
@@ -1984,7 +1985,7 @@
     </row>
     <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" s="4">
         <v>10</v>
@@ -2060,14 +2061,16 @@
       <c r="C61" s="4">
         <v>900</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E61" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B62" s="7">
         <v>11</v>
@@ -2158,7 +2161,9 @@
       <c r="C67" s="4">
         <v>900</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E67" s="22" t="s">
         <v>62</v>
       </c>
@@ -2180,7 +2185,7 @@
     </row>
     <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B69" s="4">
         <v>12</v>
@@ -2197,7 +2202,7 @@
     </row>
     <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70" s="4">
         <v>12</v>
@@ -2256,7 +2261,9 @@
       <c r="C73" s="4">
         <v>900</v>
       </c>
-      <c r="D73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E73" s="18" t="s">
         <v>67</v>
       </c>
@@ -2295,7 +2302,7 @@
     </row>
     <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B76" s="4">
         <v>13</v>
@@ -2312,7 +2319,7 @@
     </row>
     <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" s="4">
         <v>13</v>
@@ -2354,7 +2361,9 @@
       <c r="C79" s="21">
         <v>900</v>
       </c>
-      <c r="D79" s="4"/>
+      <c r="D79" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E79" s="20" t="s">
         <v>72</v>
       </c>

--- a/LookupFiles/users.xlsx
+++ b/LookupFiles/users.xlsx
@@ -89,9 +89,6 @@
     <t>Énia Elias Caanai Mouzinho</t>
   </si>
   <si>
-    <t>Adriano César Muhate</t>
-  </si>
-  <si>
     <t>Mateus Américo</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
     <t>jchissano</t>
   </si>
   <si>
-    <t>amuhate</t>
-  </si>
-  <si>
     <t>sbule</t>
   </si>
   <si>
@@ -357,6 +351,12 @@
   </si>
   <si>
     <t>tmunarapa</t>
+  </si>
+  <si>
+    <t>Angélica Mawai</t>
+  </si>
+  <si>
+    <t>amawai</t>
   </si>
 </sst>
 </file>
@@ -852,7 +852,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,7 +882,7 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="7">
         <v>9</v>
@@ -892,12 +892,12 @@
         <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -909,12 +909,12 @@
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -943,12 +943,12 @@
         <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7">
         <v>9</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
@@ -975,12 +975,12 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -992,12 +992,12 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="7">
         <v>3</v>
@@ -1024,12 +1024,12 @@
         <v>5</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
@@ -1041,12 +1041,12 @@
         <v>6</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -1058,12 +1058,12 @@
         <v>6</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="7">
         <v>4</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="4">
         <v>4</v>
@@ -1107,12 +1107,12 @@
         <v>6</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="4">
         <v>4</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="4">
         <v>4</v>
@@ -1141,12 +1141,12 @@
         <v>6</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="7">
         <v>5</v>
@@ -1156,12 +1156,12 @@
         <v>5</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="4">
         <v>5</v>
@@ -1173,12 +1173,12 @@
         <v>6</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="4">
         <v>5</v>
@@ -1190,12 +1190,12 @@
         <v>6</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="4">
         <v>5</v>
@@ -1207,12 +1207,12 @@
         <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="7">
         <v>6</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="4">
         <v>6</v>
@@ -1239,12 +1239,12 @@
         <v>6</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="4">
         <v>6</v>
@@ -1256,12 +1256,12 @@
         <v>6</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="4">
         <v>6</v>
@@ -1273,12 +1273,12 @@
         <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="7">
         <v>7</v>
@@ -1288,12 +1288,12 @@
         <v>5</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="4">
         <v>7</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="4">
         <v>7</v>
@@ -1322,12 +1322,12 @@
         <v>6</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="4">
         <v>7</v>
@@ -1339,12 +1339,12 @@
         <v>6</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="7">
         <v>8</v>
@@ -1354,12 +1354,12 @@
         <v>5</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="4">
         <v>8</v>
@@ -1371,12 +1371,12 @@
         <v>6</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="4">
         <v>8</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="4">
         <v>8</v>
@@ -1405,12 +1405,12 @@
         <v>6</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="7">
         <v>9</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="4">
         <v>9</v>
@@ -1437,12 +1437,12 @@
         <v>6</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" s="4">
         <v>9</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="4">
         <v>9</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38" s="7">
         <v>10</v>
@@ -1486,12 +1486,12 @@
         <v>5</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" s="4">
         <v>10</v>
@@ -1503,12 +1503,12 @@
         <v>6</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" s="4">
         <v>10</v>
@@ -1520,12 +1520,12 @@
         <v>6</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" s="4">
         <v>10</v>
@@ -1537,12 +1537,12 @@
         <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" s="7">
         <v>11</v>
@@ -1552,12 +1552,12 @@
         <v>5</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B43" s="4">
         <v>11</v>
@@ -1569,12 +1569,12 @@
         <v>6</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B44" s="4">
         <v>11</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B45" s="4">
         <v>11</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B46" s="7">
         <v>11</v>
@@ -1618,12 +1618,12 @@
         <v>5</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B47" s="4">
         <v>12</v>
@@ -1635,12 +1635,12 @@
         <v>6</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B48" s="4">
         <v>12</v>
@@ -1652,12 +1652,12 @@
         <v>6</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B49" s="4">
         <v>12</v>
@@ -1669,12 +1669,12 @@
         <v>6</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B50" s="7">
         <v>13</v>
@@ -1684,12 +1684,12 @@
         <v>5</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B51" s="4">
         <v>13</v>
@@ -1701,12 +1701,12 @@
         <v>6</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B52" s="4">
         <v>13</v>
@@ -1718,12 +1718,12 @@
         <v>6</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B53" s="4">
         <v>13</v>
@@ -1735,7 +1735,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">

--- a/LookupFiles/users.xlsx
+++ b/LookupFiles/users.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSB\ENERGY\LookupFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ENERGY\LookupFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1238BE0-E0A4-4925-97BF-17E9695BBD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296"/>
+    <workbookView xWindow="3465" yWindow="1350" windowWidth="21600" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -269,18 +270,12 @@
     <t>wwilson</t>
   </si>
   <si>
-    <t>lalojamento</t>
-  </si>
-  <si>
     <t>apentear</t>
   </si>
   <si>
     <t>rraquito</t>
   </si>
   <si>
-    <t>gmuandipezar</t>
-  </si>
-  <si>
     <t>hticha</t>
   </si>
   <si>
@@ -311,9 +306,6 @@
     <t>zluis</t>
   </si>
   <si>
-    <t>jvilanculos</t>
-  </si>
-  <si>
     <t>jchissano</t>
   </si>
   <si>
@@ -357,12 +349,21 @@
   </si>
   <si>
     <t>amawai</t>
+  </si>
+  <si>
+    <t>lino</t>
+  </si>
+  <si>
+    <t>graca</t>
+  </si>
+  <si>
+    <t>jonas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -848,22 +849,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -880,12 +881,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
@@ -895,7 +896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
@@ -912,7 +913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
@@ -929,7 +930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>60</v>
       </c>
@@ -946,12 +947,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
@@ -961,7 +962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>62</v>
       </c>
@@ -978,7 +979,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>63</v>
       </c>
@@ -995,7 +996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>66</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>67</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>68</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>69</v>
       </c>
@@ -1093,9 +1094,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B15" s="4">
         <v>4</v>
@@ -1107,10 +1108,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>70</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>71</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>72</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>73</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>74</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>75</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>76</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>77</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>78</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>79</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>80</v>
       </c>
@@ -1291,9 +1292,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B27" s="4">
         <v>7</v>
@@ -1308,9 +1309,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="4">
         <v>7</v>
@@ -1325,9 +1326,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="4">
         <v>7</v>
@@ -1342,9 +1343,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B30" s="7">
         <v>8</v>
@@ -1357,9 +1358,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" s="4">
         <v>8</v>
@@ -1374,9 +1375,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B32" s="4">
         <v>8</v>
@@ -1391,9 +1392,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33" s="4">
         <v>8</v>
@@ -1408,9 +1409,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B34" s="7">
         <v>9</v>
@@ -1423,9 +1424,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B35" s="4">
         <v>9</v>
@@ -1440,9 +1441,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B36" s="4">
         <v>9</v>
@@ -1457,9 +1458,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B37" s="4">
         <v>9</v>
@@ -1474,9 +1475,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B38" s="7">
         <v>10</v>
@@ -1489,9 +1490,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B39" s="4">
         <v>10</v>
@@ -1506,9 +1507,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B40" s="4">
         <v>10</v>
@@ -1523,9 +1524,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B41" s="4">
         <v>10</v>
@@ -1540,9 +1541,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B42" s="7">
         <v>11</v>
@@ -1555,9 +1556,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B43" s="4">
         <v>11</v>
@@ -1569,12 +1570,12 @@
         <v>6</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B44" s="4">
         <v>11</v>
@@ -1589,9 +1590,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B45" s="4">
         <v>11</v>
@@ -1606,9 +1607,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B46" s="7">
         <v>11</v>
@@ -1621,9 +1622,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B47" s="4">
         <v>12</v>
@@ -1638,9 +1639,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B48" s="4">
         <v>12</v>
@@ -1655,9 +1656,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B49" s="4">
         <v>12</v>
@@ -1672,9 +1673,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B50" s="7">
         <v>13</v>
@@ -1687,9 +1688,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B51" s="4">
         <v>13</v>
@@ -1704,9 +1705,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B52" s="4">
         <v>13</v>
@@ -1721,9 +1722,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B53" s="4">
         <v>13</v>
@@ -1738,7 +1739,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
